--- a/excel_path/sharpoint_220707.xlsx
+++ b/excel_path/sharpoint_220707.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanakit\OneDrive\เดสก์ท็อป\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\Friday\excel_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D86744-EB33-4DA3-8844-6A3051EC5EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ADC1A8-D6ED-40D0-ACAD-EDDDDAC165FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BBE58BC-FB98-4A7E-8DC8-5418BECC5DF3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24360" windowHeight="11400" xr2:uid="{1BBE58BC-FB98-4A7E-8DC8-5418BECC5DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,10 +38,10 @@
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">B </t>
+    <t>C</t>
   </si>
   <si>
-    <t>C</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
